--- a/Files/Uploads/Application_Management.xlsx
+++ b/Files/Uploads/Application_Management.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -34,18 +34,6 @@
     <t>alertLevel</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>ghi</t>
-  </si>
-  <si>
-    <t>jkl</t>
-  </si>
-  <si>
     <t>refinitiv</t>
   </si>
   <si>
@@ -55,18 +43,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>abc@gmail.com</t>
-  </si>
-  <si>
-    <t>def@gmail.com</t>
-  </si>
-  <si>
-    <t>ghi@gmail.com</t>
-  </si>
-  <si>
-    <t>jkl@gmail.com</t>
-  </si>
-  <si>
     <t>RIC</t>
   </si>
   <si>
@@ -76,9 +52,6 @@
     <t>PE</t>
   </si>
   <si>
-    <t>ny4v3, north_america</t>
-  </si>
-  <si>
     <t>ny4v3</t>
   </si>
   <si>
@@ -86,24 +59,58 @@
   </si>
   <si>
     <t>auto</t>
+  </si>
+  <si>
+    <t>PERM</t>
+  </si>
+  <si>
+    <t>prodcut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> north_america</t>
+  </si>
+  <si>
+    <t>jira</t>
+  </si>
+  <si>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Rajendra</t>
+  </si>
+  <si>
+    <t>Mahendra</t>
+  </si>
+  <si>
+    <t>Pradip</t>
+  </si>
+  <si>
+    <t>kiran@gmail.com</t>
+  </si>
+  <si>
+    <t>rahul@gmail.com</t>
+  </si>
+  <si>
+    <t>rajendra@gmail.com</t>
+  </si>
+  <si>
+    <t>mahendra@gmail.com</t>
+  </si>
+  <si>
+    <t>pradip@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,16 +133,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,21 +442,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,100 +477,116 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3:E5" r:id="rId2" display="abc@gmail.com"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="E5" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>